--- a/Electoral College.xlsx
+++ b/Electoral College.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81614B19-A387-40F1-9FF3-0624F708C32E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB61D50E-3548-438C-9E86-7A32E53B8273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3645" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13365" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,13 +209,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,14 +246,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 13" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 8 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 9" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52:H52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +621,15 @@
       <c r="B2">
         <v>9</v>
       </c>
+      <c r="C2">
+        <v>5024279</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3716000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2527000</v>
+      </c>
       <c r="F2">
         <v>1441170</v>
       </c>
@@ -609,6 +650,15 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3" s="1">
+        <v>733391</v>
+      </c>
+      <c r="D3" s="2">
+        <v>516000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>383000</v>
+      </c>
       <c r="F3">
         <v>189951</v>
       </c>
@@ -629,6 +679,15 @@
       <c r="B4">
         <v>11</v>
       </c>
+      <c r="C4" s="1">
+        <v>7151502</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5075000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3878000</v>
+      </c>
       <c r="F4">
         <v>1661686</v>
       </c>
@@ -649,6 +708,15 @@
       <c r="B5">
         <v>6</v>
       </c>
+      <c r="C5" s="1">
+        <v>3011524</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2195000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1361000</v>
+      </c>
       <c r="F5">
         <v>760647</v>
       </c>
@@ -667,7 +735,16 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39538223</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25946000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18001000</v>
       </c>
       <c r="F6">
         <v>6006429</v>
@@ -676,7 +753,7 @@
         <v>11110250</v>
       </c>
       <c r="H6">
-        <v>380181</v>
+        <v>384202</v>
       </c>
       <c r="I6">
         <v>2020</v>
@@ -687,7 +764,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5773714</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4200000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4158895</v>
       </c>
       <c r="F7">
         <v>1364607</v>
@@ -696,7 +782,7 @@
         <v>1804352</v>
       </c>
       <c r="H7">
-        <v>87994</v>
+        <v>88021</v>
       </c>
       <c r="I7">
         <v>2020</v>
@@ -709,11 +795,20 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" s="1">
+        <v>3605944</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2524000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1850000</v>
+      </c>
       <c r="F8">
-        <v>715291</v>
+        <v>714717</v>
       </c>
       <c r="G8">
-        <v>1080680</v>
+        <v>1080831</v>
       </c>
       <c r="H8">
         <v>28309</v>
@@ -729,6 +824,15 @@
       <c r="B9">
         <v>3</v>
       </c>
+      <c r="C9" s="1">
+        <v>989948</v>
+      </c>
+      <c r="D9" s="2">
+        <v>722000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>542000</v>
+      </c>
       <c r="F9">
         <v>200603</v>
       </c>
@@ -736,7 +840,7 @@
         <v>296268</v>
       </c>
       <c r="H9">
-        <v>7139</v>
+        <v>7475</v>
       </c>
       <c r="I9">
         <v>2020</v>
@@ -749,6 +853,15 @@
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10" s="1">
+        <v>689545</v>
+      </c>
+      <c r="D10" s="2">
+        <v>534000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>464000</v>
+      </c>
       <c r="F10">
         <v>18586</v>
       </c>
@@ -767,7 +880,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21538187</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15645000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14568993</v>
       </c>
       <c r="F11">
         <v>5668731</v>
@@ -789,6 +911,15 @@
       <c r="B12">
         <v>16</v>
       </c>
+      <c r="C12" s="1">
+        <v>10711908</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7400000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5233000</v>
+      </c>
       <c r="F12">
         <v>2461854</v>
       </c>
@@ -796,7 +927,7 @@
         <v>2473633</v>
       </c>
       <c r="H12">
-        <v>62229</v>
+        <v>64473</v>
       </c>
       <c r="I12">
         <v>2020</v>
@@ -809,6 +940,15 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="C13" s="1">
+        <v>1455271</v>
+      </c>
+      <c r="D13" s="2">
+        <v>980000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>673000</v>
+      </c>
       <c r="F13">
         <v>196864</v>
       </c>
@@ -829,6 +969,15 @@
       <c r="B14">
         <v>4</v>
       </c>
+      <c r="C14" s="1">
+        <v>1839106</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1299000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>900000</v>
+      </c>
       <c r="F14">
         <v>554119</v>
       </c>
@@ -847,7 +996,16 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12812508</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8860000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6590000</v>
       </c>
       <c r="F15">
         <v>2446891</v>
@@ -869,14 +1027,23 @@
       <c r="B16">
         <v>11</v>
       </c>
+      <c r="C16" s="1">
+        <v>6785528</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4921000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3412000</v>
+      </c>
       <c r="F16">
-        <v>1729516</v>
+        <v>1729519</v>
       </c>
       <c r="G16">
-        <v>1242413</v>
+        <v>1242416</v>
       </c>
       <c r="H16">
-        <v>59232</v>
+        <v>61186</v>
       </c>
       <c r="I16">
         <v>2020</v>
@@ -889,6 +1056,15 @@
       <c r="B17">
         <v>6</v>
       </c>
+      <c r="C17" s="1">
+        <v>3190369</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2293000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1742000</v>
+      </c>
       <c r="F17">
         <v>897672</v>
       </c>
@@ -909,6 +1085,15 @@
       <c r="B18">
         <v>6</v>
       </c>
+      <c r="C18" s="1">
+        <v>2937880</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1975000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1398000</v>
+      </c>
       <c r="F18">
         <v>771406</v>
       </c>
@@ -916,7 +1101,7 @@
         <v>570323</v>
       </c>
       <c r="H18">
-        <v>33575</v>
+        <v>30574</v>
       </c>
       <c r="I18">
         <v>2020</v>
@@ -929,6 +1114,15 @@
       <c r="B19">
         <v>8</v>
       </c>
+      <c r="C19" s="1">
+        <v>4505836</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3227000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2450000</v>
+      </c>
       <c r="F19">
         <v>1326646</v>
       </c>
@@ -949,6 +1143,15 @@
       <c r="B20">
         <v>8</v>
       </c>
+      <c r="C20" s="1">
+        <v>4657757</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3299000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2286000</v>
+      </c>
       <c r="F20">
         <v>1255776</v>
       </c>
@@ -969,6 +1172,15 @@
       <c r="B21">
         <v>4</v>
       </c>
+      <c r="C21" s="1">
+        <v>1362359</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1075000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>832000</v>
+      </c>
       <c r="F21">
         <v>360737</v>
       </c>
@@ -989,6 +1201,15 @@
       <c r="B22">
         <v>10</v>
       </c>
+      <c r="C22" s="1">
+        <v>6177224</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4303000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3383000</v>
+      </c>
       <c r="F22">
         <v>976414</v>
       </c>
@@ -996,7 +1217,6 @@
         <v>1985023</v>
       </c>
       <c r="H22">
-        <f>3037030-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>75593</v>
       </c>
       <c r="I22">
@@ -1010,6 +1230,15 @@
       <c r="B23">
         <v>11</v>
       </c>
+      <c r="C23" s="1">
+        <v>7029917</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4897000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4812909</v>
+      </c>
       <c r="F23">
         <v>1167202</v>
       </c>
@@ -1017,7 +1246,6 @@
         <v>2382202</v>
       </c>
       <c r="H23">
-        <f>3631402-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>81998</v>
       </c>
       <c r="I23">
@@ -1029,7 +1257,16 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10077331</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7467000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7151051</v>
       </c>
       <c r="F24">
         <v>2649852</v>
@@ -1038,7 +1275,6 @@
         <v>2804040</v>
       </c>
       <c r="H24">
-        <f>5539302-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>85410</v>
       </c>
       <c r="I24">
@@ -1052,6 +1288,15 @@
       <c r="B25">
         <v>10</v>
       </c>
+      <c r="C25" s="1">
+        <v>5706494</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4142000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3436000</v>
+      </c>
       <c r="F25">
         <v>1484065</v>
       </c>
@@ -1059,7 +1304,6 @@
         <v>1717077</v>
       </c>
       <c r="H25">
-        <f>3277171-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>76029</v>
       </c>
       <c r="I25">
@@ -1073,6 +1317,15 @@
       <c r="B26">
         <v>6</v>
       </c>
+      <c r="C26" s="1">
+        <v>2961279</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2177000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1749000</v>
+      </c>
       <c r="F26">
         <v>756764</v>
       </c>
@@ -1080,8 +1333,7 @@
         <v>539398</v>
       </c>
       <c r="H26">
-        <f>1315182-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
-        <v>19020</v>
+        <v>17597</v>
       </c>
       <c r="I26">
         <v>2020</v>
@@ -1094,6 +1346,15 @@
       <c r="B27">
         <v>10</v>
       </c>
+      <c r="C27" s="1">
+        <v>6154913</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4475000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3388000</v>
+      </c>
       <c r="F27">
         <v>1718736</v>
       </c>
@@ -1101,7 +1362,6 @@
         <v>1253014</v>
       </c>
       <c r="H27">
-        <f>3025962-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>54212</v>
       </c>
       <c r="I27">
@@ -1113,7 +1373,16 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1084225</v>
+      </c>
+      <c r="D28" s="2">
+        <v>827000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>641000</v>
       </c>
       <c r="F28">
         <v>343602</v>
@@ -1122,8 +1391,7 @@
         <v>244786</v>
       </c>
       <c r="H28">
-        <f>605750-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
-        <v>17362</v>
+        <v>15286</v>
       </c>
       <c r="I28">
         <v>2020</v>
@@ -1136,6 +1404,15 @@
       <c r="B29">
         <v>5</v>
       </c>
+      <c r="C29" s="1">
+        <v>1961504</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1369000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>971000</v>
+      </c>
       <c r="F29">
         <v>556846</v>
       </c>
@@ -1143,7 +1420,7 @@
         <v>374583</v>
       </c>
       <c r="H29">
-        <v>24950</v>
+        <v>24954</v>
       </c>
       <c r="I29">
         <v>2020</v>
@@ -1156,6 +1433,15 @@
       <c r="B30">
         <v>6</v>
       </c>
+      <c r="C30" s="1">
+        <v>3104614</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2198000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1455000</v>
+      </c>
       <c r="F30">
         <v>669890</v>
       </c>
@@ -1176,14 +1462,23 @@
       <c r="B31">
         <v>4</v>
       </c>
+      <c r="C31" s="1">
+        <v>1377529</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1077000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>843000</v>
+      </c>
       <c r="F31">
-        <v>365654</v>
+        <v>365660</v>
       </c>
       <c r="G31">
-        <v>424921</v>
+        <v>424937</v>
       </c>
       <c r="H31">
-        <v>13855</v>
+        <v>15608</v>
       </c>
       <c r="I31">
         <v>2020</v>
@@ -1196,6 +1491,15 @@
       <c r="B32">
         <v>14</v>
       </c>
+      <c r="C32" s="1">
+        <v>9288994</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5921000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5008000</v>
+      </c>
       <c r="F32">
         <v>1883274</v>
       </c>
@@ -1203,7 +1507,7 @@
         <v>2608335</v>
       </c>
       <c r="H32">
-        <v>72625</v>
+        <v>57744</v>
       </c>
       <c r="I32">
         <v>2020</v>
@@ -1216,6 +1520,15 @@
       <c r="B33">
         <v>5</v>
       </c>
+      <c r="C33" s="1">
+        <v>2117522</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1498000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1028000</v>
+      </c>
       <c r="F33">
         <v>401894</v>
       </c>
@@ -1234,16 +1547,25 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20201249</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13298000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9370000</v>
       </c>
       <c r="F34">
-        <v>3250230</v>
+        <v>3244798</v>
       </c>
       <c r="G34">
-        <v>5244006</v>
+        <v>5230985</v>
       </c>
       <c r="H34">
-        <v>119310</v>
+        <v>119043</v>
       </c>
       <c r="I34">
         <v>2020</v>
@@ -1254,10 +1576,19 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10439388</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7391000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7242242</v>
       </c>
       <c r="F35">
-        <v>2758773</v>
+        <v>2758775</v>
       </c>
       <c r="G35">
         <v>2684292</v>
@@ -1276,6 +1607,15 @@
       <c r="B36">
         <v>3</v>
       </c>
+      <c r="C36" s="1">
+        <v>779094</v>
+      </c>
+      <c r="D36" s="2">
+        <v>556000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>429000</v>
+      </c>
       <c r="F36">
         <v>235595</v>
       </c>
@@ -1294,7 +1634,16 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>11799448</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8740000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6733000</v>
       </c>
       <c r="F37">
         <v>3154834</v>
@@ -1316,6 +1665,15 @@
       <c r="B38">
         <v>7</v>
       </c>
+      <c r="C38" s="1">
+        <v>3959353</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1884000</v>
+      </c>
       <c r="F38">
         <v>1020280</v>
       </c>
@@ -1334,7 +1692,16 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4237256</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3242000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2590000</v>
       </c>
       <c r="F39">
         <v>958448</v>
@@ -1354,16 +1721,25 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C40" s="1">
+        <v>13011844</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9621000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7337000</v>
       </c>
       <c r="F40">
-        <v>3378263</v>
+        <v>3377674</v>
       </c>
       <c r="G40">
-        <v>3459923</v>
+        <v>3458229</v>
       </c>
       <c r="H40">
-        <v>87069</v>
+        <v>79380</v>
       </c>
       <c r="I40">
         <v>2020</v>
@@ -1376,6 +1752,15 @@
       <c r="B41">
         <v>4</v>
       </c>
+      <c r="C41" s="1">
+        <v>1097379</v>
+      </c>
+      <c r="D41" s="2">
+        <v>776000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>575000</v>
+      </c>
       <c r="F41">
         <v>199922</v>
       </c>
@@ -1383,7 +1768,6 @@
         <v>307486</v>
       </c>
       <c r="H41">
-        <f>517757-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>10349</v>
       </c>
       <c r="I41">
@@ -1397,6 +1781,15 @@
       <c r="B42">
         <v>9</v>
       </c>
+      <c r="C42" s="1">
+        <v>5118425</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3878000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2713000</v>
+      </c>
       <c r="F42">
         <v>1385103</v>
       </c>
@@ -1404,7 +1797,6 @@
         <v>1091541</v>
       </c>
       <c r="H42">
-        <f>2513329-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>36685</v>
       </c>
       <c r="I42">
@@ -1418,6 +1810,15 @@
       <c r="B43">
         <v>3</v>
       </c>
+      <c r="C43" s="1">
+        <v>886667</v>
+      </c>
+      <c r="D43" s="2">
+        <v>649000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>437000</v>
+      </c>
       <c r="F43">
         <v>261043</v>
       </c>
@@ -1438,15 +1839,23 @@
       <c r="B44">
         <v>11</v>
       </c>
+      <c r="C44" s="1">
+        <v>6910840</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5038000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3742000</v>
+      </c>
       <c r="F44">
-        <v>1852948</v>
+        <v>1852475</v>
       </c>
       <c r="G44">
-        <v>1143913</v>
+        <v>1143711</v>
       </c>
       <c r="H44">
-        <f>3054534-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
-        <v>57673</v>
+        <v>57665</v>
       </c>
       <c r="I44">
         <v>2020</v>
@@ -1457,7 +1866,16 @@
         <v>52</v>
       </c>
       <c r="B45">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C45" s="1">
+        <v>29145505</v>
+      </c>
+      <c r="D45" s="2">
+        <v>18581000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>13343000</v>
       </c>
       <c r="F45">
         <v>5890347</v>
@@ -1466,7 +1884,6 @@
         <v>5259126</v>
       </c>
       <c r="H45">
-        <f>11315056-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>165583</v>
       </c>
       <c r="I45">
@@ -1480,6 +1897,15 @@
       <c r="B46">
         <v>6</v>
       </c>
+      <c r="C46" s="1">
+        <v>3271616</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2178000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1681844</v>
+      </c>
       <c r="F46">
         <v>865140</v>
       </c>
@@ -1487,7 +1913,6 @@
         <v>560282</v>
       </c>
       <c r="H46">
-        <f>1488289-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>62867</v>
       </c>
       <c r="I46">
@@ -1501,6 +1926,15 @@
       <c r="B47">
         <v>3</v>
       </c>
+      <c r="C47" s="1">
+        <v>643077</v>
+      </c>
+      <c r="D47" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>495267</v>
+      </c>
       <c r="F47">
         <v>112704</v>
       </c>
@@ -1508,7 +1942,6 @@
         <v>242820</v>
       </c>
       <c r="H47">
-        <f>367428-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>11904</v>
       </c>
       <c r="I47">
@@ -1522,6 +1955,15 @@
       <c r="B48">
         <v>13</v>
       </c>
+      <c r="C48" s="1">
+        <v>8631393</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5974000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4541000</v>
+      </c>
       <c r="F48">
         <v>1962430</v>
       </c>
@@ -1529,7 +1971,6 @@
         <v>2413568</v>
       </c>
       <c r="H48">
-        <f>4460524-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>84526</v>
       </c>
       <c r="I48">
@@ -1543,6 +1984,15 @@
       <c r="B49">
         <v>12</v>
       </c>
+      <c r="C49" s="1">
+        <v>7705281</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5389000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4892871</v>
+      </c>
       <c r="F49">
         <v>1584651</v>
       </c>
@@ -1550,7 +2000,6 @@
         <v>2369612</v>
       </c>
       <c r="H49">
-        <f>4087631-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>133368</v>
       </c>
       <c r="I49">
@@ -1562,7 +2011,16 @@
         <v>57</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1793716</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1379000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>928000</v>
       </c>
       <c r="F50">
         <v>545382</v>
@@ -1571,8 +2029,7 @@
         <v>235984</v>
       </c>
       <c r="H50">
-        <f>794652-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
-        <v>13286</v>
+        <v>13365</v>
       </c>
       <c r="I50">
         <v>2020</v>
@@ -1585,6 +2042,15 @@
       <c r="B51">
         <v>10</v>
       </c>
+      <c r="C51" s="1">
+        <v>5893718</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4421000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3391000</v>
+      </c>
       <c r="F51">
         <v>1610184</v>
       </c>
@@ -1592,8 +2058,7 @@
         <v>1630866</v>
       </c>
       <c r="H51">
-        <f>48896</f>
-        <v>48896</v>
+        <v>56991</v>
       </c>
       <c r="I51">
         <v>2020</v>
@@ -1606,6 +2071,15 @@
       <c r="B52">
         <v>3</v>
       </c>
+      <c r="C52" s="1">
+        <v>576851</v>
+      </c>
+      <c r="D52" s="2">
+        <v>427000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>296000</v>
+      </c>
       <c r="F52">
         <v>193559</v>
       </c>
@@ -1613,7 +2087,6 @@
         <v>73491</v>
       </c>
       <c r="H52">
-        <f>276765-Table1[[#This Row],[Republican]]-Table1[[#This Row],[Democrat]]</f>
         <v>9715</v>
       </c>
       <c r="I52">
@@ -1628,17 +2101,23 @@
         <f>SUM(B2:B52)</f>
         <v>538</v>
       </c>
+      <c r="C53">
+        <v>331458425</v>
+      </c>
+      <c r="D53" s="3">
+        <v>231591000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>179737072</v>
+      </c>
       <c r="F53">
-        <f>SUM(F2:F52)</f>
-        <v>74223211</v>
+        <v>74216154</v>
       </c>
       <c r="G53">
-        <f>SUM(G2:G52)</f>
-        <v>81283671</v>
+        <v>81268924</v>
       </c>
       <c r="H53">
-        <f>SUM(H2:H52)</f>
-        <v>2909157</v>
+        <v>2898325</v>
       </c>
       <c r="I53">
         <v>2020</v>
@@ -10694,8 +11173,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>